--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-40_original/ori1/123/incorrect_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-40_original/ori1/123/incorrect_predictions_123.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,21 +462,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Aircraft GPS signal too weak . Home Point not updated .</t>
+          <t>GEO Zone Info: The target area is in an Altitude Zone . Flight altitude restricted to nnn .</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Home Point not updated</t>
+          <t>GEO Zone Info: The target area is in an Altitude Zone</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6-9</t>
+          <t>0-10</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -496,17 +496,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone</t>
+          <t>GEO Zone Info:</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0-10</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -530,6 +530,56 @@
         </is>
       </c>
       <c r="E4" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>19</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>When exceeding nnn, Obstacle Avoidance is not available</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7-14</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>19</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>When exceeding nnn,</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7-9</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>False</t>
         </is>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-40_original/ori1/123/incorrect_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-40_original/ori1/123/incorrect_predictions_123.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,21 +462,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone . Flight altitude restricted to nnn .</t>
+          <t>Aircraft GPS signal too weak . Home Point not updated .</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone</t>
+          <t>Home Point not updated</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0-10</t>
+          <t>6-9</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -496,17 +496,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>GEO Zone Info:</t>
+          <t>GEO Zone Info: The target area is in an Altitude Zone</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-10</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
@@ -530,56 +530,6 @@
         </is>
       </c>
       <c r="E4" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>19</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>When exceeding nnn, Obstacle Avoidance is not available</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>7-14</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Missing</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>19</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>When exceeding nnn,</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>7-9</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
         <is>
           <t>False</t>
         </is>
